--- a/Running projects/UEP 17th Floor/BOQ & BILLS/Finance.xlsx
+++ b/Running projects/UEP 17th Floor/BOQ & BILLS/Finance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\UEP 17th Floor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\UEP 17th Floor\BOQ &amp; BILLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F14A8A7-C167-4F88-B2A6-605E80A8A8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9E1DAB-02BB-410C-94EE-050AEFEF6171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,6 +483,7 @@
     <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,7 +517,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -850,7 +850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -868,33 +868,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="G2" s="44" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="G2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="J2" s="44" t="s">
+      <c r="H2" s="45"/>
+      <c r="J2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="44"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="E3" s="16"/>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="J3" s="48" t="s">
+      <c r="H3" s="48"/>
+      <c r="J3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="49"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
@@ -963,7 +963,7 @@
       <c r="K6" s="2">
         <v>2586024</v>
       </c>
-      <c r="L6" s="52"/>
+      <c r="L6" s="41"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
@@ -1031,10 +1031,10 @@
         <f>C10*E8</f>
         <v>594200.9</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="45"/>
+      <c r="H10" s="46"/>
       <c r="J10"/>
       <c r="K10" s="1"/>
     </row>
@@ -1494,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0019A813-27E7-4A27-B026-49E59ABA754C}">
   <dimension ref="A2:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,10 +1511,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
@@ -1580,7 +1580,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="11">
-        <v>51720488</v>
+        <v>58378100</v>
       </c>
       <c r="E7" s="36" t="s">
         <v>35</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B9" s="11">
         <f>B7*5%</f>
-        <v>2586024.4000000004</v>
+        <v>2918905</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>21</v>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B11" s="11">
         <f>B7-B9</f>
-        <v>49134463.600000001</v>
+        <v>55459195</v>
       </c>
       <c r="E11" s="36" t="s">
         <v>35</v>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B13" s="23">
         <f>B11*13%</f>
-        <v>6387480.2680000002</v>
+        <v>7209695.3500000006</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>26</v>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="B15" s="23">
         <f>B13+B11</f>
-        <v>55521943.868000001</v>
+        <v>62668890.350000001</v>
       </c>
       <c r="M15" s="5"/>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B19" s="23">
         <f>B15-B17</f>
-        <v>52976598.667999998</v>
+        <v>60123545.149999999</v>
       </c>
       <c r="F19" s="1">
         <f>B4*13%</f>
@@ -1829,7 +1829,7 @@
       <c r="A23" s="20"/>
       <c r="B23" s="23">
         <f>B19-B21</f>
-        <v>25019252.667999998</v>
+        <v>32166199.149999999</v>
       </c>
       <c r="F23" s="1">
         <f>F20-F21-F22</f>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B26" s="23">
         <f>B13*20%</f>
-        <v>1277496.0536000002</v>
+        <v>1441939.0700000003</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="B27" s="18">
         <f>B23*8%</f>
-        <v>2001540.2134399998</v>
+        <v>2573295.932</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.35">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B29" s="28">
         <f>B23-B26-B27</f>
-        <v>21740216.400959998</v>
+        <v>28150964.147999998</v>
       </c>
       <c r="I29" s="1">
         <f>K16*20%</f>
@@ -1913,7 +1913,7 @@
       <c r="B34" s="1"/>
       <c r="F34" s="1">
         <f>B29+I13</f>
-        <v>56772507.400959998</v>
+        <v>63183255.148000002</v>
       </c>
       <c r="I34" s="1">
         <f>I32-I33</f>

--- a/Running projects/UEP 17th Floor/BOQ & BILLS/Finance.xlsx
+++ b/Running projects/UEP 17th Floor/BOQ & BILLS/Finance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\UEP 17th Floor\BOQ &amp; BILLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9E1DAB-02BB-410C-94EE-050AEFEF6171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB85CFFF-5450-475F-9EB4-6C4DBCC4743A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Grand" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Grand!$A$1:$B$29</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>Bill Summary for the project UEP 17th Floor DMC Karachi</t>
   </si>
@@ -152,6 +155,9 @@
   </si>
   <si>
     <t>Received</t>
+  </si>
+  <si>
+    <t>Payable Amount</t>
   </si>
 </sst>
 </file>
@@ -540,16 +546,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>257175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>248430</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>277005</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>114941</xdr:rowOff>
+      <xdr:rowOff>162566</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -572,7 +578,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12306300" y="2724150"/>
+          <a:off x="15925800" y="3124200"/>
           <a:ext cx="5591955" cy="4591691"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -850,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1491,7 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="71" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1494,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0019A813-27E7-4A27-B026-49E59ABA754C}">
   <dimension ref="A2:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1543,8 @@
         <v>32</v>
       </c>
       <c r="I4" s="35">
-        <v>2586024.4000000004</v>
+        <f>F6</f>
+        <v>2766923</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.25">
@@ -1547,14 +1554,14 @@
         <v>31</v>
       </c>
       <c r="F5" s="38">
-        <v>58378100</v>
+        <v>55338456</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="35">
         <f>I4*13%</f>
-        <v>336183.17200000008</v>
+        <v>359699.99</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1563,16 +1570,15 @@
       <c r="E6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="38">
-        <f>F5*5%</f>
-        <v>2918905</v>
+      <c r="F6" s="11">
+        <v>2766923</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="35">
         <f>I5+I4</f>
-        <v>2922207.5720000006</v>
+        <v>3126622.99</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1580,21 +1586,21 @@
         <v>31</v>
       </c>
       <c r="B7" s="11">
-        <v>58378100</v>
+        <v>55338456</v>
       </c>
       <c r="E7" s="36" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="38">
         <f>F5-F6</f>
-        <v>55459195</v>
+        <v>52571533</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="35">
         <f>I5*20%</f>
-        <v>67236.634400000024</v>
+        <v>71939.998000000007</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,14 +1611,14 @@
       </c>
       <c r="F8" s="38">
         <f>F7*13%</f>
-        <v>7209695.3500000006</v>
+        <v>6834299.29</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="37">
         <f>I6*8%</f>
-        <v>233776.60576000006</v>
+        <v>250129.83920000002</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1620,22 +1626,21 @@
         <v>32</v>
       </c>
       <c r="B9" s="11">
-        <f>B7*5%</f>
-        <v>2918905</v>
+        <v>2766923</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="38">
         <f>F8+F7</f>
-        <v>62668890.350000001</v>
+        <v>59405832.289999999</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="35">
         <f>I6-I7-I8</f>
-        <v>2621194.3318400006</v>
+        <v>2804553.1528000003</v>
       </c>
       <c r="M9" s="5"/>
     </row>
@@ -1655,7 +1660,7 @@
       </c>
       <c r="M10" s="5">
         <f>F5</f>
-        <v>58378100</v>
+        <v>55338456</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1664,14 +1669,14 @@
       </c>
       <c r="B11" s="11">
         <f>B7-B9</f>
-        <v>55459195</v>
+        <v>52571533</v>
       </c>
       <c r="E11" s="36" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="38">
         <f>F9-F10</f>
-        <v>14777843.350000001</v>
+        <v>11514785.289999999</v>
       </c>
       <c r="I11" s="5"/>
       <c r="L11" s="4" t="s">
@@ -1689,11 +1694,11 @@
       </c>
       <c r="F12" s="38">
         <f>F8*20%</f>
-        <v>1441939.0700000003</v>
+        <v>1366859.858</v>
       </c>
       <c r="I12" s="40">
         <f>I9+F14</f>
-        <v>14774871.143840002</v>
+        <v>12031295.761599999</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>40</v>
@@ -1708,14 +1713,14 @@
       </c>
       <c r="B13" s="23">
         <f>B11*13%</f>
-        <v>7209695.3500000006</v>
+        <v>6834299.29</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="39">
         <f>F11*8%</f>
-        <v>1182227.4680000001</v>
+        <v>921182.82319999998</v>
       </c>
       <c r="I13" s="1">
         <v>35032291</v>
@@ -1735,18 +1740,18 @@
       </c>
       <c r="F14" s="38">
         <f>F11-F12-F13</f>
-        <v>12153676.812000001</v>
+        <v>9226742.6087999996</v>
       </c>
       <c r="I14" s="1">
         <f>I13+I12</f>
-        <v>49807162.14384</v>
+        <v>47063586.761600003</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M14" s="5">
         <f>M10-M11-M12-M13</f>
-        <v>7568148</v>
+        <v>4528504</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.25">
@@ -1755,7 +1760,7 @@
       </c>
       <c r="B15" s="23">
         <f>B13+B11</f>
-        <v>62668890.350000001</v>
+        <v>59405832.289999999</v>
       </c>
       <c r="M15" s="5"/>
     </row>
@@ -1771,7 +1776,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="23">
-        <v>2545345.2000000011</v>
+        <v>11032701.200000001</v>
       </c>
       <c r="E17" s="32"/>
     </row>
@@ -1785,7 +1790,7 @@
       </c>
       <c r="B19" s="23">
         <f>B15-B17</f>
-        <v>60123545.149999999</v>
+        <v>48373131.089999996</v>
       </c>
       <c r="F19" s="1">
         <f>B4*13%</f>
@@ -1805,9 +1810,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="23">
-        <f>9786488+18170858</f>
-        <v>27957346</v>
-      </c>
+        <f>9786488+18170858+8901000</f>
+        <v>36858346</v>
+      </c>
+      <c r="E21" s="32"/>
       <c r="F21" s="1">
         <f>F20*8%</f>
         <v>4986780.9424000001</v>
@@ -1825,12 +1831,15 @@
         <v>1434251.1560000002</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>42</v>
+      </c>
       <c r="B23" s="23">
         <f>B19-B21</f>
-        <v>32166199.149999999</v>
-      </c>
+        <v>11514785.089999996</v>
+      </c>
+      <c r="E23" s="41"/>
       <c r="F23" s="1">
         <f>F20-F21-F22</f>
         <v>55913729.681599997</v>
@@ -1853,7 +1862,7 @@
       </c>
       <c r="B26" s="23">
         <f>B13*20%</f>
-        <v>1441939.0700000003</v>
+        <v>1366859.858</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1862,7 +1871,7 @@
       </c>
       <c r="B27" s="18">
         <f>B23*8%</f>
-        <v>2573295.932</v>
+        <v>921182.80719999969</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.35">
@@ -1878,7 +1887,7 @@
       </c>
       <c r="B29" s="28">
         <f>B23-B26-B27</f>
-        <v>28150964.147999998</v>
+        <v>9226742.4247999974</v>
       </c>
       <c r="I29" s="1">
         <f>K16*20%</f>
@@ -1894,6 +1903,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
+      <c r="E31" s="41">
+        <f>B29+B9</f>
+        <v>11993665.424799997</v>
+      </c>
       <c r="I31" s="1">
         <f>I28*8%</f>
         <v>1453668.6400000001</v>
@@ -1913,7 +1926,7 @@
       <c r="B34" s="1"/>
       <c r="F34" s="1">
         <f>B29+I13</f>
-        <v>63183255.148000002</v>
+        <v>44259033.424799994</v>
       </c>
       <c r="I34" s="1">
         <f>I32-I33</f>
